--- a/data/table0402.xlsx
+++ b/data/table0402.xlsx
@@ -1,7 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\github\seea-aff\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
@@ -9,11 +15,12 @@
     <sheet name="4.02 Livestock Supply" sheetId="1" r:id="rId1"/>
     <sheet name="4.02 Livestock Use" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t/>
   </si>
@@ -84,24 +91,20 @@
     <t>(P61) Exportación de bienes</t>
   </si>
   <si>
-    <t>2. Agricultural Industries for feed</t>
-  </si>
-  <si>
-    <t>5. Food Processing Industries</t>
-  </si>
-  <si>
-    <t>6. Non-Food Processing Industries</t>
-  </si>
-  <si>
-    <t>7. Hotels and Restaurants</t>
+    <t>2. Food Processing Industries</t>
+  </si>
+  <si>
+    <t>3. Non-Food Processing Industries</t>
+  </si>
+  <si>
+    <t>4. Hotels and Restaurants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,10 +113,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
-      <b/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,12 +141,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -152,14 +158,23 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,20 +457,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1575" customWidth="1"/>
-    <col min="2" max="2" width="23.005" customWidth="1"/>
-    <col min="3" max="3" width="32.4375" customWidth="1"/>
-    <col min="4" max="4" width="9.285" customWidth="1"/>
-    <col min="5" max="5" width="10.1425" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,262 +489,262 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>319231</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>324.4956</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="2">
+        <v>324.49560000000002</v>
+      </c>
+      <c r="D3" s="2">
         <v>1495.31</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>321050.8056</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3" s="2">
+        <v>321050.80560000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>51143.3</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>72.855</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>51216.155</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>72.855000000000004</v>
+      </c>
+      <c r="E4" s="2">
+        <v>51216.154999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="2">
         <v>131041</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>76.615</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="C5" s="2">
+        <v>76.614999999999995</v>
+      </c>
+      <c r="D5" s="2">
         <v>45.939</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="2">
         <v>131163.554</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>37489300</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>2348830.171</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>850.684</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>39838980.855</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6" s="2">
+        <v>2348830.1710000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>850.68399999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39838980.854999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>42202.1</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>4.90751</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="C7" s="2">
+        <v>4.9075100000000003</v>
+      </c>
+      <c r="D7" s="2">
         <v>1231.51</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>43438.51751</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="E7" s="2">
+        <v>43438.517509999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
         <v>482536</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="2">
         <v>1720.84</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>484256.84</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>287934</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>16.8744</v>
-      </c>
-      <c r="D9" s="2" t="n">
+      <c r="C9" s="2">
+        <v>16.874400000000001</v>
+      </c>
+      <c r="D9" s="2">
         <v>1597.23</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>289548.1044</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="E9" s="2">
+        <v>289548.10440000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>2303.43</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.0977592</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>22.047</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>2325.5747592</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="2">
+        <v>2303.4299999999998</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.7759200000000004E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>22.047000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2325.5747591999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>111.01</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>111.01</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>-13.5875</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>-2208.780056</v>
-      </c>
-      <c r="D12" s="2" t="n">
+      <c r="C12" s="2">
+        <v>-2208.7800560000001</v>
+      </c>
+      <c r="D12" s="2">
         <v>2222.37</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0.0024439999998318</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="E12" s="2">
+        <v>2.4439999998317999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>6199.89</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="2">
         <v>6199.89</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
         <v>10519.2</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="2">
         <v>10519.2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>72263.4</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>72263.4</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>72263.399999999994</v>
+      </c>
+      <c r="E15" s="2">
+        <v>72263.399999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
         <v>17136.3</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="2">
         <v>17136.3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>38805788.2525</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>2348765.2212132</v>
-      </c>
-      <c r="D17" s="4" t="n">
+      <c r="B17" s="4">
+        <v>38805788.252499998</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2348765.2212132001</v>
+      </c>
+      <c r="D17" s="4">
         <v>113656.735</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v>41268210.2087132</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="E17" s="4">
+        <v>41268210.208713204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -735,92 +752,95 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1575" customWidth="1"/>
-    <col min="2" max="2" width="40.155" customWidth="1"/>
-    <col min="3" max="3" width="33.295" customWidth="1"/>
-    <col min="4" max="4" width="27.2925" customWidth="1"/>
-    <col min="5" max="5" width="24.72" customWidth="1"/>
-    <col min="6" max="6" width="30.7225" customWidth="1"/>
-    <col min="7" max="7" width="25.5775" customWidth="1"/>
-    <col min="8" max="8" width="29.0075" customWidth="1"/>
-    <col min="9" max="9" width="22.1475" customWidth="1"/>
-    <col min="10" max="10" width="10.1425" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>571.717</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>323151.35200000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>571.71699999999998</v>
+      </c>
+      <c r="H3" s="2">
         <v>-3376.88</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>704.008</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>323151.352</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>321050.197</v>
+      <c r="I3" s="2">
+        <v>704.00800000000004</v>
+      </c>
+      <c r="J3" s="2">
+        <v>321050.19699999999</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -829,36 +849,36 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>47008.7</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>4188.19</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>-39.0485</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>58.297</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>51216.1385</v>
+      <c r="G4" s="2">
+        <v>4188.1899999999996</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-39.048499999999997</v>
+      </c>
+      <c r="I4" s="2">
+        <v>58.296999999999997</v>
+      </c>
+      <c r="J4" s="2">
+        <v>51216.138500000001</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -867,36 +887,36 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>613.817</v>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>107178.505</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>613.81700000000001</v>
+      </c>
+      <c r="H5" s="2">
         <v>23146</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>225.361</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>107178.505</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>131163.683</v>
+      <c r="I5" s="2">
+        <v>225.36099999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>131163.68299999999</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -905,36 +925,36 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
+        <v>2958050</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25382900</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>180456</v>
+      </c>
+      <c r="F6" s="2">
         <v>11249400</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>68127.3</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>66.773</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>2958050</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>25382900</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>180456</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>39839000.073</v>
+      <c r="I6" s="2">
+        <v>66.772999999999996</v>
+      </c>
+      <c r="J6" s="2">
+        <v>39839000.072999999</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -943,36 +963,36 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>879.94299999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>42535.8</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
         <v>22.76</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>879.943</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>43438.503</v>
+      <c r="J7" s="2">
+        <v>43438.502999999997</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -981,36 +1001,36 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>249713.20600000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>54.590499999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2953.6770000000001</v>
+      </c>
+      <c r="F8" s="2">
         <v>231535</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>249713.206</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>54.5905</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>2953.677</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>484256.4735</v>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>484256.47350000002</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1019,36 +1039,36 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11807.68656</v>
+      </c>
+      <c r="D9" s="2">
+        <v>484.38799999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4309.8073000000004</v>
+      </c>
+      <c r="F9" s="2">
         <v>272633</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>239.587</v>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>239.58699999999999</v>
+      </c>
+      <c r="I9" s="2">
         <v>73.75</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>11807.68656</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>484.388</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>4309.8073</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>289548.21886</v>
+      <c r="J9" s="2">
+        <v>289548.21886000002</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1057,35 +1077,35 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>2325.58</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>2325.58</v>
       </c>
       <c r="K10" s="2"/>
@@ -1095,35 +1115,35 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>3.26571</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>107.744</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.2657099999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>111.00971</v>
       </c>
       <c r="K11" s="2"/>
@@ -1133,35 +1153,35 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2"/>
@@ -1171,36 +1191,36 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>502.249</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.8687762000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>136.90067999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>502.24900000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>-0.382658</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="I13" s="2">
         <v>5559.26</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>1.8687762</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>136.90068</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>6199.8957982</v>
+      <c r="J13" s="2">
+        <v>6199.8957982000002</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1209,35 +1229,35 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1399.65</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>231.1062</v>
+      </c>
+      <c r="F14" s="2">
         <v>8605.57</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>15.0284</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>267.828</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>1399.65</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>231.1062</v>
-      </c>
-      <c r="J14" s="2" t="n">
+      <c r="I14" s="2">
+        <v>267.82799999999997</v>
+      </c>
+      <c r="J14" s="2">
         <v>10519.1826</v>
       </c>
       <c r="K14" s="2"/>
@@ -1247,36 +1267,36 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>483.05491000000001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18549.291000000001</v>
+      </c>
+      <c r="F15" s="2">
         <v>48056</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>55.628</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="I15" s="2">
         <v>5119.38</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>483.05491</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>18549.291</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>72263.35391</v>
+      <c r="J15" s="2">
+        <v>72263.353910000005</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1285,35 +1305,35 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>28.083666999999998</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.43432</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2168.2549800000002</v>
+      </c>
+      <c r="F16" s="2">
         <v>3614.78</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>-12.2215</v>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-12.221500000000001</v>
+      </c>
+      <c r="I16" s="2">
         <v>11335</v>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>28.083667</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>2.43432</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>2168.25498</v>
-      </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="2">
         <v>17136.331467</v>
       </c>
       <c r="K16" s="2"/>
@@ -1323,36 +1343,36 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>11903891.099</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>5373.724</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>88158.276452</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <v>25757.997</v>
-      </c>
-      <c r="F17" s="4" t="n">
+      <c r="B17" s="4">
         <v>2958050</v>
       </c>
-      <c r="G17" s="4" t="n">
-        <v>26077543.3499132</v>
-      </c>
-      <c r="H17" s="4" t="n">
-        <v>649.15682</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>208805.03716</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>41268228.6403452</v>
+      <c r="C17" s="4">
+        <v>26077543.349913199</v>
+      </c>
+      <c r="D17" s="4">
+        <v>649.15682000000004</v>
+      </c>
+      <c r="E17" s="4">
+        <v>208805.03716000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>11903891.098999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5373.7240000000002</v>
+      </c>
+      <c r="H17" s="4">
+        <v>88158.276452000006</v>
+      </c>
+      <c r="I17" s="4">
+        <v>25757.996999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>41268228.640345201</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1361,7 +1381,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1380,6 +1400,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>